--- a/Code/Results/Cases/Case_2_93/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_93/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.82856415683907</v>
+        <v>14.36869142360349</v>
       </c>
       <c r="C2">
-        <v>18.35485583771989</v>
+        <v>10.75117040981646</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>30.48782735283342</v>
+        <v>16.59640256886743</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>16.86991607391245</v>
       </c>
       <c r="G2">
-        <v>37.80370438500579</v>
+        <v>27.77976244798875</v>
       </c>
       <c r="H2">
-        <v>10.35852214608598</v>
+        <v>12.93568528974765</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>10.09278309787953</v>
+        <v>15.73962196915567</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.08962464474763</v>
+        <v>13.62612902144914</v>
       </c>
       <c r="C3">
-        <v>17.13327177781778</v>
+        <v>10.1408211776373</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>28.19411122670344</v>
+        <v>15.64447618581514</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>15.89584955866815</v>
       </c>
       <c r="G3">
-        <v>35.26023443645181</v>
+        <v>27.10757498782016</v>
       </c>
       <c r="H3">
-        <v>10.01183092324142</v>
+        <v>12.93453169931673</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>10.38954362080214</v>
+        <v>15.81610850659851</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.96772974599827</v>
+        <v>13.15196288439352</v>
       </c>
       <c r="C4">
-        <v>16.34763494204268</v>
+        <v>9.745113458587241</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>26.72875803767425</v>
+        <v>15.03507972112006</v>
       </c>
       <c r="F4">
-        <v>26.79314218379242</v>
+        <v>15.26997757108489</v>
       </c>
       <c r="G4">
-        <v>33.68294128767703</v>
+        <v>26.70278110408819</v>
       </c>
       <c r="H4">
-        <v>9.811326790901811</v>
+        <v>12.93829847740028</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>10.57336176773108</v>
+        <v>15.8650952768412</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.49668096312805</v>
+        <v>12.95439730688211</v>
       </c>
       <c r="C5">
-        <v>16.0183958396003</v>
+        <v>9.57864225974874</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>26.11668963225445</v>
+        <v>14.78074912488671</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>15.008197319934</v>
       </c>
       <c r="G5">
-        <v>33.03650524244276</v>
+        <v>26.54011844935768</v>
       </c>
       <c r="H5">
-        <v>9.732660603086341</v>
+        <v>12.94095267276592</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>10.64876623147834</v>
+        <v>15.88556893154309</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.41761936250297</v>
+        <v>12.92133761591868</v>
       </c>
       <c r="C6">
-        <v>15.96317366399764</v>
+        <v>9.550686507844027</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>26.01413849784458</v>
+        <v>14.73816440761065</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>14.96433081551589</v>
       </c>
       <c r="G6">
-        <v>32.92895420514241</v>
+        <v>26.51325573325215</v>
       </c>
       <c r="H6">
-        <v>9.719779784966367</v>
+        <v>12.94146080071145</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>10.66131966802723</v>
+        <v>15.88899950483655</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.96143347446017</v>
+        <v>13.14931565996324</v>
       </c>
       <c r="C7">
-        <v>16.34323165949936</v>
+        <v>9.742889415983628</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>26.72056464057596</v>
+        <v>15.03167361710603</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>15.26647399323133</v>
       </c>
       <c r="G7">
-        <v>33.67423763377415</v>
+        <v>26.70057769478683</v>
       </c>
       <c r="H7">
-        <v>9.810253649549336</v>
+        <v>12.9383297500927</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>10.57437656914843</v>
+        <v>15.86536931917056</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.24006923457258</v>
+        <v>14.11657396044475</v>
       </c>
       <c r="C8">
-        <v>17.940945432258</v>
+        <v>10.54509702556265</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>29.70840954353792</v>
+        <v>16.273492889737</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>16.5399640634477</v>
       </c>
       <c r="G8">
-        <v>36.93003287641411</v>
+        <v>27.54652562113571</v>
       </c>
       <c r="H8">
-        <v>10.23637457763681</v>
+        <v>12.93435533977691</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>10.19483184684396</v>
+        <v>15.7655758720765</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.29081202811244</v>
+        <v>15.85991241313657</v>
       </c>
       <c r="C9">
-        <v>20.79961971903628</v>
+        <v>11.95036097894926</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>35.14560967485185</v>
+        <v>18.62295077285343</v>
       </c>
       <c r="F9">
-        <v>34.45877994148617</v>
+        <v>19.00274580682531</v>
       </c>
       <c r="G9">
-        <v>43.36209170286966</v>
+        <v>29.25529270599567</v>
       </c>
       <c r="H9">
-        <v>11.17354259415172</v>
+        <v>12.96229883117237</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>9.458534485185675</v>
+        <v>15.58583406282202</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>31.03158418136939</v>
+        <v>17.03772831059452</v>
       </c>
       <c r="C10">
-        <v>22.74611203703525</v>
+        <v>12.87899587172154</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>38.93242306843586</v>
+        <v>20.29158400496897</v>
       </c>
       <c r="F10">
-        <v>37.72874519847221</v>
+        <v>20.67494806633232</v>
       </c>
       <c r="G10">
-        <v>48.03706172141511</v>
+        <v>30.52407685834825</v>
       </c>
       <c r="H10">
-        <v>11.93387289959919</v>
+        <v>13.00486537700675</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>8.914810292176927</v>
+        <v>15.46335501083807</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>32.23242361188482</v>
+        <v>17.54973329332596</v>
       </c>
       <c r="C11">
-        <v>23.60206893806125</v>
+        <v>13.27875560321498</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>40.62359334939759</v>
+        <v>21.00860635402501</v>
       </c>
       <c r="F11">
-        <v>39.14805722232856</v>
+        <v>21.3917225636224</v>
       </c>
       <c r="G11">
-        <v>50.15295193879903</v>
+        <v>31.10078580379488</v>
       </c>
       <c r="H11">
-        <v>12.44983716183743</v>
+        <v>13.02904705215661</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>8.664801809822764</v>
+        <v>15.40968394428385</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>32.6810456352035</v>
+        <v>17.7401037811087</v>
       </c>
       <c r="C12">
-        <v>23.92234885911277</v>
+        <v>13.42686602129808</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>41.26087231631602</v>
+        <v>21.27411787350042</v>
       </c>
       <c r="F12">
-        <v>39.67592721363785</v>
+        <v>21.65686569030329</v>
       </c>
       <c r="G12">
-        <v>50.953833705453</v>
+        <v>31.3188406690878</v>
       </c>
       <c r="H12">
-        <v>12.64538725404308</v>
+        <v>13.03889769083037</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>8.569540588999686</v>
+        <v>15.38965179552114</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>32.58468976141997</v>
+        <v>17.69926170962584</v>
       </c>
       <c r="C13">
-        <v>23.85353513246621</v>
+        <v>13.39511331015315</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>41.12373689130564</v>
+        <v>21.21720189325843</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>21.60004134736742</v>
       </c>
       <c r="G13">
-        <v>50.78134306302915</v>
+        <v>31.27189747149325</v>
       </c>
       <c r="H13">
-        <v>12.60325935075168</v>
+        <v>13.03674533269655</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>8.590086621651819</v>
+        <v>15.39395312874393</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>32.26945131593916</v>
+        <v>17.56546610058793</v>
       </c>
       <c r="C14">
-        <v>23.62849325514576</v>
+        <v>13.29100630283654</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>40.67607642917059</v>
+        <v>21.0305703697433</v>
       </c>
       <c r="F14">
-        <v>39.19167637503948</v>
+        <v>21.4136618050453</v>
       </c>
       <c r="G14">
-        <v>50.21884020729526</v>
+        <v>31.1187334266611</v>
       </c>
       <c r="H14">
-        <v>12.46591997566928</v>
+        <v>13.02984356966096</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>8.656977707794436</v>
+        <v>15.40803004936855</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>32.07557917703642</v>
+        <v>17.48305223702924</v>
       </c>
       <c r="C15">
-        <v>23.49015981315577</v>
+        <v>13.22681174187975</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>40.40150989718233</v>
+        <v>20.9154716840706</v>
       </c>
       <c r="F15">
-        <v>38.96319309154516</v>
+        <v>21.29868154950795</v>
       </c>
       <c r="G15">
-        <v>49.87428490144337</v>
+        <v>31.02486517286586</v>
       </c>
       <c r="H15">
-        <v>12.38182688410214</v>
+        <v>13.02570636661894</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>8.697867103154524</v>
+        <v>15.41669052137577</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.95222258676</v>
+        <v>17.00378043585164</v>
       </c>
       <c r="C16">
-        <v>22.68961118270486</v>
+        <v>12.85241340943024</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>38.82138102286666</v>
+        <v>20.24388198160525</v>
       </c>
       <c r="F16">
-        <v>37.6346354302881</v>
+        <v>20.62722412089977</v>
       </c>
       <c r="G16">
-        <v>47.89866099263519</v>
+        <v>30.48635512542668</v>
       </c>
       <c r="H16">
-        <v>11.90679403930037</v>
+        <v>13.00338208572572</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>8.931078545363269</v>
+        <v>15.46690351013838</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>30.25164018717</v>
+        <v>16.70359695155069</v>
       </c>
       <c r="C17">
-        <v>22.19119784723968</v>
+        <v>12.61691554278153</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>37.84487369421235</v>
+        <v>19.82114056086633</v>
       </c>
       <c r="F17">
-        <v>36.80228778268389</v>
+        <v>20.20408069617459</v>
       </c>
       <c r="G17">
-        <v>46.68466834426629</v>
+        <v>30.15568307954285</v>
       </c>
       <c r="H17">
-        <v>11.70512882837263</v>
+        <v>12.99092172955709</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>9.073328127420668</v>
+        <v>15.49822983610884</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.84432449296633</v>
+        <v>16.52870449928729</v>
       </c>
       <c r="C18">
-        <v>21.90171849988735</v>
+        <v>12.47932873859463</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>37.28015293090581</v>
+        <v>19.5740309815304</v>
       </c>
       <c r="F18">
-        <v>36.31710943239624</v>
+        <v>19.95656407809808</v>
       </c>
       <c r="G18">
-        <v>45.98530850882018</v>
+        <v>29.96546012099068</v>
       </c>
       <c r="H18">
-        <v>11.59068988690064</v>
+        <v>12.98420837384302</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>9.154909542712113</v>
+        <v>15.5164405510988</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.70565180025303</v>
+        <v>16.46910824647594</v>
       </c>
       <c r="C19">
-        <v>21.80321321301015</v>
+        <v>12.43237791380189</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>37.0883844499756</v>
+        <v>19.489682676596</v>
       </c>
       <c r="F19">
-        <v>36.1517249415006</v>
+        <v>19.87204792380562</v>
       </c>
       <c r="G19">
-        <v>45.7482965921374</v>
+        <v>29.90105724067165</v>
       </c>
       <c r="H19">
-        <v>11.55220398302827</v>
+        <v>12.98201319732342</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>9.182496639448567</v>
+        <v>15.52263953924338</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.32666619043177</v>
+        <v>16.73578403237565</v>
       </c>
       <c r="C20">
-        <v>22.2445425194339</v>
+        <v>12.64220569732863</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>37.94913196637091</v>
+        <v>19.86655167175908</v>
       </c>
       <c r="F20">
-        <v>36.89155697731401</v>
+        <v>20.2495528364879</v>
       </c>
       <c r="G20">
-        <v>46.8140065113995</v>
+        <v>30.19088867332972</v>
       </c>
       <c r="H20">
-        <v>11.72643426271056</v>
+        <v>12.99220121015962</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>9.058211298631504</v>
+        <v>15.49487517351022</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>32.36220592430131</v>
+        <v>17.60486115982197</v>
       </c>
       <c r="C21">
-        <v>23.69469456583737</v>
+        <v>13.3216738440904</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>40.80763761576943</v>
+        <v>21.08555136785519</v>
       </c>
       <c r="F21">
-        <v>39.30090300329766</v>
+        <v>21.46857628470567</v>
       </c>
       <c r="G21">
-        <v>50.38405960693891</v>
+        <v>31.1637324663969</v>
       </c>
       <c r="H21">
-        <v>12.50625275287495</v>
+        <v>13.03185196105669</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>8.637347957380923</v>
+        <v>15.40388741134859</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>33.657231494079</v>
+        <v>18.15233567922065</v>
       </c>
       <c r="C22">
-        <v>24.62023792482092</v>
+        <v>13.74668505943578</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>42.65845308643535</v>
+        <v>21.84722852666485</v>
       </c>
       <c r="F22">
-        <v>40.81974568026788</v>
+        <v>22.22866616901555</v>
       </c>
       <c r="G22">
-        <v>52.7159939098614</v>
+        <v>31.7974944742342</v>
       </c>
       <c r="H22">
-        <v>13.07609782787734</v>
+        <v>13.06180821852032</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>8.358736835402061</v>
+        <v>15.34612216657074</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.96909617534896</v>
+        <v>17.86204203341495</v>
       </c>
       <c r="C23">
-        <v>24.12814066458827</v>
+        <v>13.52159427752354</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>41.67169102684397</v>
+        <v>21.44389826995025</v>
       </c>
       <c r="F23">
-        <v>40.01414225038419</v>
+        <v>21.82633154475864</v>
       </c>
       <c r="G23">
-        <v>51.47103528845225</v>
+        <v>31.4595142721866</v>
       </c>
       <c r="H23">
-        <v>12.77174061046209</v>
+        <v>13.04545017083939</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>8.507839467886114</v>
+        <v>15.3767976887836</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30.29276111655812</v>
+        <v>16.72123945021344</v>
       </c>
       <c r="C24">
-        <v>22.22043456297222</v>
+        <v>12.63077885764615</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>37.90200722321892</v>
+        <v>19.84603398817861</v>
       </c>
       <c r="F24">
-        <v>36.8512191057543</v>
+        <v>20.22900810905294</v>
       </c>
       <c r="G24">
-        <v>46.75553723204757</v>
+        <v>30.1749725628801</v>
       </c>
       <c r="H24">
-        <v>11.71679741593596</v>
+        <v>12.99162135456144</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>9.06504622425879</v>
+        <v>15.49639119088059</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.23784286702037</v>
+        <v>15.40581300347445</v>
       </c>
       <c r="C25">
-        <v>20.05440500819485</v>
+        <v>11.58835522365276</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>33.71523442916826</v>
+        <v>17.97092871007376</v>
       </c>
       <c r="F25">
-        <v>33.19272459126715</v>
+        <v>18.34778573295697</v>
       </c>
       <c r="G25">
-        <v>41.62467982412517</v>
+        <v>28.78948437314263</v>
       </c>
       <c r="H25">
-        <v>10.90860192859598</v>
+        <v>12.95088359688785</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>9.65759204871881</v>
+        <v>15.63276645064548</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_93/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_93/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.36869142360349</v>
+        <v>24.82856415683905</v>
       </c>
       <c r="C2">
-        <v>10.75117040981646</v>
+        <v>18.35485583771982</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>16.59640256886743</v>
+        <v>30.48782735283343</v>
       </c>
       <c r="F2">
-        <v>16.86991607391245</v>
+        <v>30.27884324296195</v>
       </c>
       <c r="G2">
-        <v>27.77976244798875</v>
+        <v>37.80370438500569</v>
       </c>
       <c r="H2">
-        <v>12.93568528974765</v>
+        <v>10.35852214608597</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>15.73962196915567</v>
+        <v>10.09278309787954</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.62612902144914</v>
+        <v>23.08962464474763</v>
       </c>
       <c r="C3">
-        <v>10.1408211776373</v>
+        <v>17.13327177781795</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>15.64447618581514</v>
+        <v>28.19411122670348</v>
       </c>
       <c r="F3">
-        <v>15.89584955866815</v>
+        <v>28.1630198432675</v>
       </c>
       <c r="G3">
-        <v>27.10757498782016</v>
+        <v>35.26023443645169</v>
       </c>
       <c r="H3">
-        <v>12.93453169931673</v>
+        <v>10.01183092324132</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>15.81610850659851</v>
+        <v>10.38954362080197</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.15196288439352</v>
+        <v>21.96772974599819</v>
       </c>
       <c r="C4">
-        <v>9.745113458587241</v>
+        <v>16.3476349420427</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>15.03507972112006</v>
+        <v>26.72875803767423</v>
       </c>
       <c r="F4">
-        <v>15.26997757108489</v>
+        <v>26.79314218379246</v>
       </c>
       <c r="G4">
-        <v>26.70278110408819</v>
+        <v>33.68294128767692</v>
       </c>
       <c r="H4">
-        <v>12.93829847740028</v>
+        <v>9.811326790901788</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>15.8650952768412</v>
+        <v>10.57336176773108</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.95439730688211</v>
+        <v>21.49668096312802</v>
       </c>
       <c r="C5">
-        <v>9.57864225974874</v>
+        <v>16.01839583960023</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14.78074912488671</v>
+        <v>26.11668963225441</v>
       </c>
       <c r="F5">
-        <v>15.008197319934</v>
+        <v>26.2169480385347</v>
       </c>
       <c r="G5">
-        <v>26.54011844935768</v>
+        <v>33.03650524244284</v>
       </c>
       <c r="H5">
-        <v>12.94095267276592</v>
+        <v>9.732660603086355</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>15.88556893154309</v>
+        <v>10.64876623147844</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.92133761591868</v>
+        <v>21.41761936250304</v>
       </c>
       <c r="C6">
-        <v>9.550686507844027</v>
+        <v>15.9631736639976</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14.73816440761065</v>
+        <v>26.0141384978446</v>
       </c>
       <c r="F6">
-        <v>14.96433081551589</v>
+        <v>26.12018204701072</v>
       </c>
       <c r="G6">
-        <v>26.51325573325215</v>
+        <v>32.92895420514246</v>
       </c>
       <c r="H6">
-        <v>12.94146080071145</v>
+        <v>9.719779784966335</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>15.88899950483655</v>
+        <v>10.66131966802719</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.14931565996324</v>
+        <v>21.96143347446017</v>
       </c>
       <c r="C7">
-        <v>9.742889415983628</v>
+        <v>16.3432316594995</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>15.03167361710603</v>
+        <v>26.72056464057593</v>
       </c>
       <c r="F7">
-        <v>15.26647399323133</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>26.70057769478683</v>
+        <v>33.67423763377406</v>
       </c>
       <c r="H7">
-        <v>12.9383297500927</v>
+        <v>9.810253649549304</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>15.86536931917056</v>
+        <v>10.57437656914843</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.11657396044475</v>
+        <v>24.24006923457253</v>
       </c>
       <c r="C8">
-        <v>10.54509702556265</v>
+        <v>17.94094543225798</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>16.273492889737</v>
+        <v>29.70840954353793</v>
       </c>
       <c r="F8">
-        <v>16.5399640634477</v>
+        <v>29.56389055882491</v>
       </c>
       <c r="G8">
-        <v>27.54652562113571</v>
+        <v>36.93003287641401</v>
       </c>
       <c r="H8">
-        <v>12.93435533977691</v>
+        <v>10.23637457763683</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>15.7655758720765</v>
+        <v>10.19483184684403</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.85991241313657</v>
+        <v>28.29081202811231</v>
       </c>
       <c r="C9">
-        <v>11.95036097894926</v>
+        <v>20.79961971903619</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>18.62295077285343</v>
+        <v>35.14560967485177</v>
       </c>
       <c r="F9">
-        <v>19.00274580682531</v>
+        <v>34.45877994148621</v>
       </c>
       <c r="G9">
-        <v>29.25529270599567</v>
+        <v>43.36209170286951</v>
       </c>
       <c r="H9">
-        <v>12.96229883117237</v>
+        <v>11.17354259415174</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>15.58583406282202</v>
+        <v>9.45853448518571</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.03772831059452</v>
+        <v>31.03158418136936</v>
       </c>
       <c r="C10">
-        <v>12.87899587172154</v>
+        <v>22.74611203703518</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>20.29158400496897</v>
+        <v>38.93242306843584</v>
       </c>
       <c r="F10">
-        <v>20.67494806633232</v>
+        <v>37.72874519847226</v>
       </c>
       <c r="G10">
-        <v>30.52407685834825</v>
+        <v>48.03706172141499</v>
       </c>
       <c r="H10">
-        <v>13.00486537700675</v>
+        <v>11.93387289959916</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>15.46335501083807</v>
+        <v>8.914810292176996</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.54973329332596</v>
+        <v>32.2324236118849</v>
       </c>
       <c r="C11">
-        <v>13.27875560321498</v>
+        <v>23.60206893806125</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>21.00860635402501</v>
+        <v>40.62359334939756</v>
       </c>
       <c r="F11">
-        <v>21.3917225636224</v>
+        <v>39.14805722232853</v>
       </c>
       <c r="G11">
-        <v>31.10078580379488</v>
+        <v>50.15295193879921</v>
       </c>
       <c r="H11">
-        <v>13.02904705215661</v>
+        <v>12.44983716183748</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>15.40968394428385</v>
+        <v>8.664801809822661</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.7401037811087</v>
+        <v>32.68104563520359</v>
       </c>
       <c r="C12">
-        <v>13.42686602129808</v>
+        <v>23.92234885911271</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>21.27411787350042</v>
+        <v>41.26087231631609</v>
       </c>
       <c r="F12">
-        <v>21.65686569030329</v>
+        <v>39.67592721363783</v>
       </c>
       <c r="G12">
-        <v>31.3188406690878</v>
+        <v>50.95383370545319</v>
       </c>
       <c r="H12">
-        <v>13.03889769083037</v>
+        <v>12.64538725404311</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>15.38965179552114</v>
+        <v>8.569540588999651</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.69926170962584</v>
+        <v>32.58468976142</v>
       </c>
       <c r="C13">
-        <v>13.39511331015315</v>
+        <v>23.85353513246625</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>21.21720189325843</v>
+        <v>41.12373689130564</v>
       </c>
       <c r="F13">
-        <v>21.60004134736742</v>
+        <v>39.56266403258223</v>
       </c>
       <c r="G13">
-        <v>31.27189747149325</v>
+        <v>50.78134306302925</v>
       </c>
       <c r="H13">
-        <v>13.03674533269655</v>
+        <v>12.60325935075169</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>15.39395312874393</v>
+        <v>8.590086621651849</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.56546610058793</v>
+        <v>32.26945131593918</v>
       </c>
       <c r="C14">
-        <v>13.29100630283654</v>
+        <v>23.62849325514572</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>21.0305703697433</v>
+        <v>40.67607642917059</v>
       </c>
       <c r="F14">
-        <v>21.4136618050453</v>
+        <v>39.19167637503956</v>
       </c>
       <c r="G14">
-        <v>31.1187334266611</v>
+        <v>50.21884020729536</v>
       </c>
       <c r="H14">
-        <v>13.02984356966096</v>
+        <v>12.46591997566929</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>15.40803004936855</v>
+        <v>8.656977707794402</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.48305223702924</v>
+        <v>32.07557917703644</v>
       </c>
       <c r="C15">
-        <v>13.22681174187975</v>
+        <v>23.49015981315585</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>20.9154716840706</v>
+        <v>40.40150989718233</v>
       </c>
       <c r="F15">
-        <v>21.29868154950795</v>
+        <v>38.96319309154514</v>
       </c>
       <c r="G15">
-        <v>31.02486517286586</v>
+        <v>49.87428490144345</v>
       </c>
       <c r="H15">
-        <v>13.02570636661894</v>
+        <v>12.38182688410216</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>15.41669052137577</v>
+        <v>8.697867103154486</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.00378043585164</v>
+        <v>30.95222258676003</v>
       </c>
       <c r="C16">
-        <v>12.85241340943024</v>
+        <v>22.68961118270489</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>20.24388198160525</v>
+        <v>38.8213810228667</v>
       </c>
       <c r="F16">
-        <v>20.62722412089977</v>
+        <v>37.63463543028804</v>
       </c>
       <c r="G16">
-        <v>30.48635512542668</v>
+        <v>47.8986609926352</v>
       </c>
       <c r="H16">
-        <v>13.00338208572572</v>
+        <v>11.90679403930036</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>15.46690351013838</v>
+        <v>8.931078545363274</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.70359695155069</v>
+        <v>30.25164018716997</v>
       </c>
       <c r="C17">
-        <v>12.61691554278153</v>
+        <v>22.19119784723958</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>19.82114056086633</v>
+        <v>37.84487369421237</v>
       </c>
       <c r="F17">
-        <v>20.20408069617459</v>
+        <v>36.80228778268393</v>
       </c>
       <c r="G17">
-        <v>30.15568307954285</v>
+        <v>46.68466834426626</v>
       </c>
       <c r="H17">
-        <v>12.99092172955709</v>
+        <v>11.70512882837262</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>15.49822983610884</v>
+        <v>9.073328127420638</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.52870449928729</v>
+        <v>29.8443244929664</v>
       </c>
       <c r="C18">
-        <v>12.47932873859463</v>
+        <v>21.90171849988759</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>19.5740309815304</v>
+        <v>37.28015293090584</v>
       </c>
       <c r="F18">
-        <v>19.95656407809808</v>
+        <v>36.31710943239627</v>
       </c>
       <c r="G18">
-        <v>29.96546012099068</v>
+        <v>45.98530850882049</v>
       </c>
       <c r="H18">
-        <v>12.98420837384302</v>
+        <v>11.59068988690062</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>15.5164405510988</v>
+        <v>9.154909542711978</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.46910824647594</v>
+        <v>29.70565180025292</v>
       </c>
       <c r="C19">
-        <v>12.43237791380189</v>
+        <v>21.8032132130102</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>19.489682676596</v>
+        <v>37.08838444997561</v>
       </c>
       <c r="F19">
-        <v>19.87204792380562</v>
+        <v>36.1517249415007</v>
       </c>
       <c r="G19">
-        <v>29.90105724067165</v>
+        <v>45.74829659213731</v>
       </c>
       <c r="H19">
-        <v>12.98201319732342</v>
+        <v>11.55220398302828</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>15.52263953924338</v>
+        <v>9.182496639448567</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.73578403237565</v>
+        <v>30.32666619043157</v>
       </c>
       <c r="C20">
-        <v>12.64220569732863</v>
+        <v>22.24454251943397</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>19.86655167175908</v>
+        <v>37.9491319663708</v>
       </c>
       <c r="F20">
-        <v>20.2495528364879</v>
+        <v>36.89155697731401</v>
       </c>
       <c r="G20">
-        <v>30.19088867332972</v>
+        <v>46.81400651139916</v>
       </c>
       <c r="H20">
-        <v>12.99220121015962</v>
+        <v>11.72643426271059</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>15.49487517351022</v>
+        <v>9.058211298631674</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.60486115982197</v>
+        <v>32.36220592430129</v>
       </c>
       <c r="C21">
-        <v>13.3216738440904</v>
+        <v>23.6946945658375</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>21.08555136785519</v>
+        <v>40.80763761576931</v>
       </c>
       <c r="F21">
-        <v>21.46857628470567</v>
+        <v>39.30090300329766</v>
       </c>
       <c r="G21">
-        <v>31.1637324663969</v>
+        <v>50.38405960693893</v>
       </c>
       <c r="H21">
-        <v>13.03185196105669</v>
+        <v>12.50625275287494</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>15.40388741134859</v>
+        <v>8.637347957380991</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.15233567922065</v>
+        <v>33.65723149407895</v>
       </c>
       <c r="C22">
-        <v>13.74668505943578</v>
+        <v>24.62023792482099</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>21.84722852666485</v>
+        <v>42.65845308643529</v>
       </c>
       <c r="F22">
-        <v>22.22866616901555</v>
+        <v>40.81974568026786</v>
       </c>
       <c r="G22">
-        <v>31.7974944742342</v>
+        <v>52.71599390986124</v>
       </c>
       <c r="H22">
-        <v>13.06180821852032</v>
+        <v>13.0760978278773</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>15.34612216657074</v>
+        <v>8.358736835402162</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.86204203341495</v>
+        <v>32.96909617534906</v>
       </c>
       <c r="C23">
-        <v>13.52159427752354</v>
+        <v>24.12814066458828</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>21.44389826995025</v>
+        <v>41.67169102684402</v>
       </c>
       <c r="F23">
-        <v>21.82633154475864</v>
+        <v>40.01414225038425</v>
       </c>
       <c r="G23">
-        <v>31.4595142721866</v>
+        <v>51.47103528845241</v>
       </c>
       <c r="H23">
-        <v>13.04545017083939</v>
+        <v>12.77174061046213</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>15.3767976887836</v>
+        <v>8.507839467886109</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.72123945021344</v>
+        <v>30.29276111655816</v>
       </c>
       <c r="C24">
-        <v>12.63077885764615</v>
+        <v>22.22043456297231</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>19.84603398817861</v>
+        <v>37.90200722321897</v>
       </c>
       <c r="F24">
-        <v>20.22900810905294</v>
+        <v>36.85121910575441</v>
       </c>
       <c r="G24">
-        <v>30.1749725628801</v>
+        <v>46.75553723204754</v>
       </c>
       <c r="H24">
-        <v>12.99162135456144</v>
+        <v>11.71679741593597</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>15.49639119088059</v>
+        <v>9.065046224258792</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.40581300347445</v>
+        <v>27.2378428670203</v>
       </c>
       <c r="C25">
-        <v>11.58835522365276</v>
+        <v>20.0544050081949</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>17.97092871007376</v>
+        <v>33.71523442916822</v>
       </c>
       <c r="F25">
-        <v>18.34778573295697</v>
+        <v>33.19272459126707</v>
       </c>
       <c r="G25">
-        <v>28.78948437314263</v>
+        <v>41.62467982412513</v>
       </c>
       <c r="H25">
-        <v>12.95088359688785</v>
+        <v>10.908601928596</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>15.63276645064548</v>
+        <v>9.657592048718874</v>
       </c>
       <c r="O25">
         <v>0</v>
